--- a/config_1017/shoping_config.xlsx
+++ b/config_1017/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1731">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7142,30 +7142,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>聚划算6元-1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算6元-2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算6元-2(10min)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算30元-1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算30元-2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算30元-2(10min)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算98元-1</t>
   </si>
   <si>
@@ -7175,24 +7151,6 @@
     <t>聚划算98元-2(10min)</t>
   </si>
   <si>
-    <t>聚划算288元-1</t>
-  </si>
-  <si>
-    <t>聚划算288元-2</t>
-  </si>
-  <si>
-    <t>聚划算288元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算588元-1</t>
-  </si>
-  <si>
-    <t>聚划算588元-2</t>
-  </si>
-  <si>
-    <t>聚划算588元-2(10min)</t>
-  </si>
-  <si>
     <t>86400,2,0</t>
   </si>
   <si>
@@ -7200,54 +7158,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>聚划算六元第二次</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算六元第二次（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算六元第一次</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算三十元第一次</t>
-  </si>
-  <si>
-    <t>聚划算三十元第二次</t>
-  </si>
-  <si>
-    <t>聚划算三十元第二次（10min）</t>
-  </si>
-  <si>
-    <t>聚划算九十八元第一次</t>
-  </si>
-  <si>
-    <t>聚划算九十八元第二次</t>
-  </si>
-  <si>
-    <t>聚划算九十八元第二次（10min）</t>
-  </si>
-  <si>
-    <t>聚划算二八八元第一次</t>
-  </si>
-  <si>
-    <t>聚划算二八八元第二次</t>
-  </si>
-  <si>
-    <t>聚划算二八八元第二次（10min）</t>
-  </si>
-  <si>
-    <t>聚划算五八八元第一次</t>
-  </si>
-  <si>
-    <t>聚划算五八八元第二次</t>
-  </si>
-  <si>
-    <t>聚划算五八八元第二次（10min）</t>
-  </si>
-  <si>
     <t>"80万金币","2.4万金币"，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7269,15 +7179,6 @@
     <t>"380万金币","22.8万金币"，"3.8万",</t>
   </si>
   <si>
-    <t>"9980万金币","29万金币"，</t>
-  </si>
-  <si>
-    <t>"9980万金币","4.8万金币"，</t>
-  </si>
-  <si>
-    <t>"9980万金币","4.8万金币"，"9.8万",</t>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7287,16 +7188,306 @@
     <t>聚划算198元-2(10min)</t>
   </si>
   <si>
-    <t>聚划算一九八元第一次</t>
-  </si>
-  <si>
-    <t>聚划算一九八元第二次</t>
-  </si>
-  <si>
-    <t>聚划算一九八元第二次（10min）</t>
-  </si>
-  <si>
     <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>"980万金币","29万金币"，</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币"，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币"，"9.8万",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币"，</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币"，</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币"，"19.8万",</t>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币"，</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币"，</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币"，"99.8万",</t>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币"，</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币"，</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币"，"249.8万",</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币"，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币"，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币"，"49.8万",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>856000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4066000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>848000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3910000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10090000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10388000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10478000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20390000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20988000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21186000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51290000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52788000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>53286000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>102790000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>105788000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>106786000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>257290000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>264788000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>267286000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10381,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7472,7 +7663,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7640,6 +7831,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10080,11 +10277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM484"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z426" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="I428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z451" sqref="Z451"/>
+      <selection pane="bottomRight" activeCell="I462" sqref="I462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10096,7 +10293,7 @@
     <col min="5" max="5" width="6.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="29" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="6" customWidth="1"/>
     <col min="9" max="9" width="63.125" style="6" customWidth="1"/>
     <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
     <col min="11" max="11" width="22" style="6" customWidth="1"/>
@@ -37517,7 +37714,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1549</v>
+        <v>1701</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>1561</v>
@@ -38388,13 +38585,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1635</v>
+        <v>1650</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1654</v>
+        <v>1695</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1667</v>
+        <v>1640</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38405,12 +38602,29 @@
       <c r="M447" s="54">
         <v>0</v>
       </c>
-      <c r="Q447" s="55"/>
+      <c r="N447" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O447" s="54">
+        <v>800</v>
+      </c>
+      <c r="P447" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q447" s="55" t="s">
+        <v>1706</v>
+      </c>
       <c r="V447" s="54" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="W447" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X447" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y447" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG447" s="54">
         <v>1</v>
@@ -38436,20 +38650,46 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1636</v>
+        <v>1651</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1652</v>
+        <v>1696</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1668</v>
-      </c>
-      <c r="Q448" s="55"/>
+        <v>1641</v>
+      </c>
+      <c r="K448" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L448" s="54">
+        <v>0</v>
+      </c>
+      <c r="M448" s="54">
+        <v>0</v>
+      </c>
+      <c r="N448" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O448" s="54">
+        <v>800</v>
+      </c>
+      <c r="P448" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q448" s="55" t="s">
+        <v>1707</v>
+      </c>
       <c r="V448" s="54" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="W448" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X448" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y448" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG448" s="54">
         <v>1</v>
@@ -38475,20 +38715,49 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1637</v>
+        <v>1652</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1653</v>
+        <v>1697</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1669</v>
-      </c>
-      <c r="Q449" s="55"/>
+        <v>1642</v>
+      </c>
+      <c r="K449" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L449" s="54">
+        <v>0</v>
+      </c>
+      <c r="M449" s="54">
+        <v>0</v>
+      </c>
+      <c r="N449" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O449" s="54">
+        <v>800</v>
+      </c>
+      <c r="P449" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q449" s="55" t="s">
+        <v>1703</v>
+      </c>
       <c r="V449" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W449" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X449" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y449" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z449" s="54">
+        <v>52</v>
       </c>
       <c r="AG449" s="54">
         <v>1</v>
@@ -38514,20 +38783,46 @@
         <v>1</v>
       </c>
       <c r="G450" s="54" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H450" s="54" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I450" s="54" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K450" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L450" s="54">
+        <v>0</v>
+      </c>
+      <c r="M450" s="54">
+        <v>0</v>
+      </c>
+      <c r="N450" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O450" s="54">
+        <v>3800</v>
+      </c>
+      <c r="P450" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q450" s="55" t="s">
+        <v>1708</v>
+      </c>
+      <c r="V450" s="54" t="s">
         <v>1638</v>
-      </c>
-      <c r="H450" s="54" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I450" s="54" t="s">
-        <v>1670</v>
-      </c>
-      <c r="Q450" s="55"/>
-      <c r="V450" s="54" t="s">
-        <v>1650</v>
       </c>
       <c r="W450" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X450" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y450" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG450" s="54">
         <v>1</v>
@@ -38553,20 +38848,46 @@
         <v>1</v>
       </c>
       <c r="G451" s="54" t="s">
-        <v>1639</v>
+        <v>1654</v>
       </c>
       <c r="H451" s="54" t="s">
-        <v>1656</v>
+        <v>1678</v>
       </c>
       <c r="I451" s="54" t="s">
-        <v>1671</v>
-      </c>
-      <c r="Q451" s="55"/>
+        <v>1644</v>
+      </c>
+      <c r="K451" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L451" s="54">
+        <v>0</v>
+      </c>
+      <c r="M451" s="54">
+        <v>0</v>
+      </c>
+      <c r="N451" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O451" s="54">
+        <v>3800</v>
+      </c>
+      <c r="P451" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q451" s="55" t="s">
+        <v>1704</v>
+      </c>
       <c r="V451" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W451" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X451" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y451" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG451" s="54">
         <v>1</v>
@@ -38592,20 +38913,49 @@
         <v>1</v>
       </c>
       <c r="G452" s="54" t="s">
-        <v>1640</v>
+        <v>1655</v>
       </c>
       <c r="H452" s="54" t="s">
-        <v>1657</v>
+        <v>1679</v>
       </c>
       <c r="I452" s="54" t="s">
-        <v>1672</v>
-      </c>
-      <c r="Q452" s="55"/>
+        <v>1645</v>
+      </c>
+      <c r="K452" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L452" s="54">
+        <v>0</v>
+      </c>
+      <c r="M452" s="54">
+        <v>0</v>
+      </c>
+      <c r="N452" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O452" s="54">
+        <v>3800</v>
+      </c>
+      <c r="P452" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q452" s="55" t="s">
+        <v>1705</v>
+      </c>
       <c r="V452" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W452" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X452" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y452" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z452" s="54">
+        <v>53</v>
       </c>
       <c r="AG452" s="54">
         <v>1</v>
@@ -38631,20 +38981,46 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1658</v>
+        <v>1680</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1673</v>
-      </c>
-      <c r="Q453" s="55"/>
+        <v>1665</v>
+      </c>
+      <c r="K453" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L453" s="54">
+        <v>0</v>
+      </c>
+      <c r="M453" s="54">
+        <v>0</v>
+      </c>
+      <c r="N453" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O453" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P453" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q453" s="55" t="s">
+        <v>1709</v>
+      </c>
       <c r="V453" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W453" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X453" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y453" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG453" s="54">
         <v>1</v>
@@ -38670,20 +39046,46 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1659</v>
+        <v>1681</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1674</v>
-      </c>
-      <c r="Q454" s="55"/>
+        <v>1666</v>
+      </c>
+      <c r="K454" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L454" s="54">
+        <v>0</v>
+      </c>
+      <c r="M454" s="54">
+        <v>0</v>
+      </c>
+      <c r="N454" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O454" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P454" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q454" s="55" t="s">
+        <v>1710</v>
+      </c>
       <c r="V454" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W454" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X454" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y454" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG454" s="54">
         <v>1</v>
@@ -38709,20 +39111,49 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1660</v>
+        <v>1682</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1675</v>
-      </c>
-      <c r="Q455" s="55"/>
+        <v>1667</v>
+      </c>
+      <c r="K455" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L455" s="54">
+        <v>0</v>
+      </c>
+      <c r="M455" s="54">
+        <v>0</v>
+      </c>
+      <c r="N455" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O455" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P455" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q455" s="55" t="s">
+        <v>1711</v>
+      </c>
       <c r="V455" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W455" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X455" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y455" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z455" s="54">
+        <v>54</v>
       </c>
       <c r="AG455" s="54">
         <v>1</v>
@@ -38748,20 +39179,46 @@
         <v>1</v>
       </c>
       <c r="G456" s="54" t="s">
-        <v>1676</v>
+        <v>1646</v>
       </c>
       <c r="H456" s="54" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="I456" s="54" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q456" s="55"/>
+        <v>1668</v>
+      </c>
+      <c r="K456" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L456" s="54">
+        <v>0</v>
+      </c>
+      <c r="M456" s="54">
+        <v>0</v>
+      </c>
+      <c r="N456" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O456" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P456" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q456" s="55" t="s">
+        <v>1712</v>
+      </c>
       <c r="V456" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W456" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X456" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG456" s="54">
         <v>1</v>
@@ -38787,20 +39244,46 @@
         <v>1</v>
       </c>
       <c r="G457" s="54" t="s">
-        <v>1677</v>
+        <v>1647</v>
       </c>
       <c r="H457" s="54" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="I457" s="54" t="s">
-        <v>1668</v>
-      </c>
-      <c r="Q457" s="55"/>
+        <v>1669</v>
+      </c>
+      <c r="K457" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L457" s="54">
+        <v>0</v>
+      </c>
+      <c r="M457" s="54">
+        <v>0</v>
+      </c>
+      <c r="N457" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O457" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q457" s="55" t="s">
+        <v>1713</v>
+      </c>
       <c r="V457" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W457" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X457" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y457" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG457" s="54">
         <v>1</v>
@@ -38826,20 +39309,49 @@
         <v>1</v>
       </c>
       <c r="G458" s="54" t="s">
-        <v>1678</v>
+        <v>1648</v>
       </c>
       <c r="H458" s="54" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="I458" s="54" t="s">
-        <v>1669</v>
-      </c>
-      <c r="Q458" s="55"/>
+        <v>1670</v>
+      </c>
+      <c r="K458" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L458" s="54">
+        <v>0</v>
+      </c>
+      <c r="M458" s="54">
+        <v>0</v>
+      </c>
+      <c r="N458" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O458" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P458" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q458" s="55" t="s">
+        <v>1714</v>
+      </c>
       <c r="V458" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W458" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X458" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y458" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z458" s="54">
+        <v>55</v>
       </c>
       <c r="AG458" s="54">
         <v>1</v>
@@ -38865,20 +39377,46 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1644</v>
+        <v>1656</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1661</v>
+        <v>1686</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q459" s="55"/>
+        <v>1698</v>
+      </c>
+      <c r="K459" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L459" s="54">
+        <v>0</v>
+      </c>
+      <c r="M459" s="54">
+        <v>0</v>
+      </c>
+      <c r="N459" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O459" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P459" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q459" s="55" t="s">
+        <v>1715</v>
+      </c>
       <c r="V459" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W459" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X459" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y459" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG459" s="54">
         <v>1</v>
@@ -38904,20 +39442,46 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1645</v>
+        <v>1657</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1662</v>
+        <v>1687</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1668</v>
-      </c>
-      <c r="Q460" s="55"/>
+        <v>1699</v>
+      </c>
+      <c r="K460" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L460" s="54">
+        <v>0</v>
+      </c>
+      <c r="M460" s="54">
+        <v>0</v>
+      </c>
+      <c r="N460" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O460" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P460" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q460" s="55" t="s">
+        <v>1716</v>
+      </c>
       <c r="V460" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W460" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X460" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y460" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG460" s="54">
         <v>1</v>
@@ -38943,20 +39507,49 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1646</v>
+        <v>1658</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1663</v>
+        <v>1688</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1669</v>
-      </c>
-      <c r="Q461" s="55"/>
+        <v>1700</v>
+      </c>
+      <c r="K461" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L461" s="54">
+        <v>0</v>
+      </c>
+      <c r="M461" s="54">
+        <v>0</v>
+      </c>
+      <c r="N461" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O461" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P461" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q461" s="55" t="s">
+        <v>1717</v>
+      </c>
       <c r="V461" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W461" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X461" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y461" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z461" s="54">
+        <v>56</v>
       </c>
       <c r="AG461" s="54">
         <v>1</v>
@@ -38982,20 +39575,46 @@
         <v>1</v>
       </c>
       <c r="G462" s="54" t="s">
-        <v>1647</v>
+        <v>1659</v>
       </c>
       <c r="H462" s="54" t="s">
-        <v>1664</v>
+        <v>1689</v>
       </c>
       <c r="I462" s="54" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q462" s="55"/>
+        <v>1671</v>
+      </c>
+      <c r="K462" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L462" s="54">
+        <v>0</v>
+      </c>
+      <c r="M462" s="54">
+        <v>0</v>
+      </c>
+      <c r="N462" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O462" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P462" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q462" s="55" t="s">
+        <v>1718</v>
+      </c>
       <c r="V462" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W462" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X462" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y462" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG462" s="54">
         <v>1</v>
@@ -39021,20 +39640,46 @@
         <v>1</v>
       </c>
       <c r="G463" s="54" t="s">
-        <v>1648</v>
+        <v>1660</v>
       </c>
       <c r="H463" s="54" t="s">
-        <v>1665</v>
+        <v>1690</v>
       </c>
       <c r="I463" s="54" t="s">
-        <v>1668</v>
-      </c>
-      <c r="Q463" s="55"/>
+        <v>1672</v>
+      </c>
+      <c r="K463" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="54">
+        <v>0</v>
+      </c>
+      <c r="M463" s="54">
+        <v>0</v>
+      </c>
+      <c r="N463" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O463" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q463" s="55" t="s">
+        <v>1719</v>
+      </c>
       <c r="V463" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W463" s="54">
         <v>9999999</v>
+      </c>
+      <c r="X463" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="54">
+        <v>2552233600</v>
       </c>
       <c r="AG463" s="54">
         <v>1</v>
@@ -39060,21 +39705,50 @@
         <v>1</v>
       </c>
       <c r="G464" s="54" t="s">
-        <v>1649</v>
+        <v>1661</v>
       </c>
       <c r="H464" s="54" t="s">
-        <v>1666</v>
+        <v>1691</v>
       </c>
       <c r="I464" s="54" t="s">
-        <v>1669</v>
-      </c>
-      <c r="Q464" s="55"/>
+        <v>1673</v>
+      </c>
+      <c r="K464" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L464" s="54">
+        <v>0</v>
+      </c>
+      <c r="M464" s="54">
+        <v>0</v>
+      </c>
+      <c r="N464" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O464" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P464" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q464" s="55" t="s">
+        <v>1720</v>
+      </c>
       <c r="V464" s="54" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="W464" s="54">
         <v>9999999</v>
       </c>
+      <c r="X464" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y464" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z464" s="54">
+        <v>57</v>
+      </c>
       <c r="AG464" s="54">
         <v>1</v>
       </c>
@@ -39088,8 +39762,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q465" s="10"/>
+    <row r="465" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="54">
+        <v>464</v>
+      </c>
+      <c r="B465" s="54">
+        <v>10381</v>
+      </c>
+      <c r="F465" s="54">
+        <v>1</v>
+      </c>
+      <c r="G465" s="54" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H465" s="54" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I465" s="54" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K465" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L465" s="54">
+        <v>0</v>
+      </c>
+      <c r="M465" s="54">
+        <v>0</v>
+      </c>
+      <c r="N465" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O465" s="54">
+        <v>249800</v>
+      </c>
+      <c r="P465" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q465" s="55" t="s">
+        <v>1721</v>
+      </c>
+      <c r="V465" s="54" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W465" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X465" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y465" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AG465" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH465" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK465" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="54">
+        <v>465</v>
+      </c>
+      <c r="B466" s="54">
+        <v>10382</v>
+      </c>
+      <c r="F466" s="54">
+        <v>1</v>
+      </c>
+      <c r="G466" s="54" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H466" s="54" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I466" s="54" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K466" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L466" s="54">
+        <v>0</v>
+      </c>
+      <c r="M466" s="54">
+        <v>0</v>
+      </c>
+      <c r="N466" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O466" s="54">
+        <v>249800</v>
+      </c>
+      <c r="P466" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q466" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="V466" s="54" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W466" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X466" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y466" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="AG466" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="54">
+        <v>466</v>
+      </c>
+      <c r="B467" s="54">
+        <v>10383</v>
+      </c>
+      <c r="F467" s="54">
+        <v>1</v>
+      </c>
+      <c r="G467" s="54" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H467" s="54" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I467" s="54" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K467" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L467" s="54">
+        <v>0</v>
+      </c>
+      <c r="M467" s="54">
+        <v>0</v>
+      </c>
+      <c r="N467" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O467" s="54">
+        <v>249800</v>
+      </c>
+      <c r="P467" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q467" s="55" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V467" s="54" t="s">
+        <v>1638</v>
+      </c>
+      <c r="W467" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X467" s="54">
+        <v>1605571200</v>
+      </c>
+      <c r="Y467" s="54">
+        <v>2552233600</v>
+      </c>
+      <c r="Z467" s="54">
+        <v>58</v>
+      </c>
+      <c r="AG467" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="54">
+        <v>1</v>
+      </c>
     </row>
     <row r="484" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I484" s="6">
@@ -39106,10 +39975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39524,7 +40393,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1682</v>
+        <v>1649</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -39863,6 +40732,104 @@
       </c>
       <c r="D52">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="56">
+        <v>52</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C53" s="56">
+        <v>1</v>
+      </c>
+      <c r="D53" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="56">
+        <v>53</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C54" s="56">
+        <v>1</v>
+      </c>
+      <c r="D54" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="56">
+        <v>54</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C55" s="56">
+        <v>1</v>
+      </c>
+      <c r="D55" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C56" s="56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="56">
+        <v>56</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C57" s="56">
+        <v>1</v>
+      </c>
+      <c r="D57" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="56">
+        <v>57</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C58" s="56">
+        <v>1</v>
+      </c>
+      <c r="D58" s="56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="56">
+        <v>58</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C59" s="56">
+        <v>1</v>
+      </c>
+      <c r="D59" s="56">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
